--- a/backlog-documentacao/backlog.xlsx
+++ b/backlog-documentacao/backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>BACKLOG</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Prioridade</t>
   </si>
   <si>
-    <t xml:space="preserve">Req. estabelecidos pela Instituição</t>
-  </si>
-  <si>
     <t>TI</t>
   </si>
   <si>
@@ -54,73 +51,85 @@
     <t>Essencial</t>
   </si>
   <si>
+    <t xml:space="preserve">A fazer</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Trello</t>
+  </si>
+  <si>
+    <t>Feito</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelo lógico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Script MySQL</t>
+  </si>
+  <si>
+    <t>Algoritmos</t>
+  </si>
+  <si>
+    <t>Vetores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For, função, variáveis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arq Comp &amp; Pré-calculo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cálculos matemáticos</t>
+  </si>
+  <si>
+    <t>Importante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intro SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilização da VM</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contexto &amp; ONU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protótipo no Figma</t>
+  </si>
+  <si>
+    <t>Planejamento</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>Socioemocional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceitos Aula &amp; Questões</t>
+  </si>
+  <si>
     <t>Fazendo</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>GitHub</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Feito</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
-    <t>BD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modelo lógico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A fazer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Script MySQL</t>
-  </si>
-  <si>
-    <t>Algoritmos</t>
-  </si>
-  <si>
-    <t>Vetores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For, função, variáveis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arq Comp &amp; Pré-calculo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cálculos matemáticos</t>
-  </si>
-  <si>
-    <t>Importante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intro SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilização da VM</t>
-  </si>
-  <si>
-    <t>PI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contexto &amp; ONU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protótipo no Figma</t>
-  </si>
-  <si>
-    <t>Planejamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requisitos que estabeleci</t>
   </si>
 </sst>
 </file>
@@ -141,15 +150,15 @@
       <name val="Work Sans"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
+      <name val="Work Sans"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.000000"/>
-      <color theme="1"/>
-      <name val="Work Sans"/>
     </font>
     <font>
       <sz val="11.000000"/>
@@ -185,8 +194,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFBDBD"/>
+        <bgColor rgb="FFFFBDBD"/>
       </patternFill>
     </fill>
     <fill>
@@ -203,12 +212,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFBDBD"/>
-        <bgColor rgb="FFFFBDBD"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor theme="3" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -218,92 +227,24 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </left>
       <right style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.099978637043366805"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-0.099978637043366805"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-0.099978637043366805"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="2" tint="-0.099978637043366805"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-0.099978637043366805"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="22">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -314,103 +255,58 @@
     <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="6" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="3" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="6" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -923,7 +819,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -931,7 +827,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" style="1" width="15.140625"/>
     <col customWidth="1" min="2" max="2" style="1" width="16.7109375"/>
-    <col customWidth="1" min="3" max="5" style="1" width="11.00390625"/>
+    <col customWidth="1" min="3" max="3" style="1" width="14.7109375"/>
+    <col customWidth="1" min="4" max="5" style="1" width="11.00390625"/>
     <col customWidth="1" min="6" max="6" style="1" width="10.421875"/>
     <col customWidth="1" min="7" max="7" style="1" width="11.57421875"/>
   </cols>
@@ -970,362 +867,386 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="33.75" customHeight="1">
+    <row r="3" ht="45" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" ht="39.75" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F3" s="5">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="45" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6">
+      <c r="C4" s="5"/>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="45" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="45" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9">
         <v>8</v>
       </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" ht="39.75" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8" t="s">
+      <c r="G6" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" ht="45" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5</v>
+      </c>
+      <c r="G7" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" ht="45" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F8" s="5">
+        <v>8</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" ht="45" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="5">
+        <v>3</v>
+      </c>
+      <c r="G9" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" ht="45" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F10" s="9">
         <v>5</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G10" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" ht="45" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3</v>
+      </c>
+      <c r="G11" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" ht="45" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="9">
+        <v>8</v>
+      </c>
+      <c r="G12" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" ht="45" customHeight="1">
+      <c r="A13" s="11"/>
+      <c r="B13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="9">
+        <v>8</v>
+      </c>
+      <c r="G13" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" ht="45" customHeight="1">
+      <c r="A14" s="11"/>
+      <c r="B14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="13">
+        <v>5</v>
+      </c>
+      <c r="G14" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" ht="45" customHeight="1">
+      <c r="A15" s="11"/>
+      <c r="B15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="14">
+        <v>5</v>
+      </c>
+      <c r="G15" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" ht="45" customHeight="1">
+      <c r="A16" s="11"/>
+      <c r="B16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="14">
+        <v>5</v>
+      </c>
+      <c r="G16" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" ht="45" customHeight="1">
+      <c r="A17" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="19">
+        <v>8</v>
+      </c>
+      <c r="G17" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="39.75" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="6">
-        <v>3</v>
-      </c>
-      <c r="G6" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" ht="39.75" customHeight="1">
-      <c r="A7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="13">
-        <v>8</v>
-      </c>
-      <c r="G7" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" ht="39.75" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="13">
-        <v>5</v>
-      </c>
-      <c r="G8" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" ht="39.75" customHeight="1">
-      <c r="A9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="6">
-        <v>8</v>
-      </c>
-      <c r="G9" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" ht="39.75" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="6">
-        <v>3</v>
-      </c>
-      <c r="G10" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" ht="39.75" customHeight="1">
-      <c r="A11" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="6">
-        <v>5</v>
-      </c>
-      <c r="G11" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" ht="39.75" customHeight="1">
-      <c r="A12" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="13">
-        <v>3</v>
-      </c>
-      <c r="G12" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" ht="39.75" customHeight="1">
-      <c r="A13" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="6">
-        <v>8</v>
-      </c>
-      <c r="G13" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" ht="39.75" customHeight="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="6">
-        <v>8</v>
-      </c>
-      <c r="G14" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" ht="39.75" customHeight="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="27">
-        <v>5</v>
-      </c>
-      <c r="G15" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" ht="39.75" customHeight="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" ht="24.75" customHeight="1">
-      <c r="A17" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="31">
-        <v>1</v>
-      </c>
-    </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" ht="24.75" customHeight="1">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" ht="24.75" customHeight="1">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" ht="19.5" customHeight="1">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-    </row>
-    <row r="24" ht="19.5" customHeight="1">
-      <c r="G24" s="35"/>
-    </row>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" ht="19.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000014" footer="0.31496062000000014"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
